--- a/data/financial_statements/soci/MSFT.xlsx
+++ b/data/financial_statements/soci/MSFT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,4073 +593,4163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>52747000000</v>
+      </c>
+      <c r="C2">
         <v>50122000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>51865000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>49360000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>51728000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>45317000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>46152000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>41706000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>43076000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>37154000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>38033000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>35021000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>36906000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>33055000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>33717000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>30571000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>32471000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>29084000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>30085000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>26819000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>28918000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>24538000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>25605000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>23212000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>25826000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>21928000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>26448000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>20531000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>23796000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>20379000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>22180000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>21729000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>26470000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>23201000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>23382000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>20403000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>24519000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>18529000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>19896000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>20489000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.0197</v>
+      </c>
+      <c r="C3">
         <v>0.106</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1238</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1835</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.2009</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2197</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2135</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1909</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1672</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.124</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.128</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.1456</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.1366</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.1365</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1207</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.1399</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1229</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1853</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.175</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1554</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1197</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.119</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-0.0319</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.1306</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0853</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.076</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.1924</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0551</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.101</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.1216</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.0514</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.065</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0796</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.2521</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.1752</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0042</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.1428</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.1575</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.1017</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.1771</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>17488000000</v>
+      </c>
+      <c r="C4">
         <v>15452000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>16429000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>15615000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>16960000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13646000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>13991000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>13045000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>14194000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>11002000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>12339000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10975000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>12358000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>10406000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>10412000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>10170000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>12423000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>9905000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>9742000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>9269000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>11064000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>8278000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>8456000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>8060000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>9901000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>7844000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>7979000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>7722000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>9872000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>7207000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>7468000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>7161000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>10136000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>8273000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>7633000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>5978000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>8322000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>5145000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>5738000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>4787000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>35259000000</v>
+      </c>
+      <c r="C5">
         <v>34670000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>35436000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>33745000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>34768000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>31671000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>32161000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>28661000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>28882000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>26152000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>25694000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>24046000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>24548000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>22649000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>23305000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>20401000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>20048000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>19179000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>20343000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>17550000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>17854000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>16260000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>17149000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>15152000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>15925000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>14084000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>18469000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>12809000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>13924000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>13172000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>14712000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>14568000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>16334000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>14928000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>15749000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>14425000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>16197000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>13384000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>14158000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>15702000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>6844000000</v>
+      </c>
+      <c r="C6">
         <v>6628000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6849000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6306000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5758000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5599000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5687000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5204000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4899000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4926000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5214000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4887000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4603000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4565000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4513000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4316000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4070000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>3977000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>3933000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3715000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>3504000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>3574000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>3514000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>3355000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3062000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3106000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>3146000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2980000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2900000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>2962000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>3094000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>2984000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>2903000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>3065000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>3123000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>2743000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>2748000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>2767000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>2783000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>2640000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>8016000000</v>
+      </c>
+      <c r="C7">
         <v>6524000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>8053000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>7075000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6763000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5834000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7379000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6409000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6086000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5350000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7073000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6184000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>6054000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>5398000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>6387000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5744000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5720000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5247000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>6031000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5543000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>5671000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>4978000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>5647000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>5074000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>4958000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>4263000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5237000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>4546000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>4998000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>4417000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>5233000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>4800000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>5412000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>4879000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>6017000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>4708000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>5480000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>4283000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>5302000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>5450000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>20399000000</v>
+      </c>
+      <c r="C8">
         <v>21518000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>20534000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>20364000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>22247000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>20238000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>19095000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>17048000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>17897000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>15876000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>13407000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>12975000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>13891000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>12686000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>12405000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>10341000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>10258000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>9955000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>10379000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>8292000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>8679000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>7708000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>7682000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>6723000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>7905000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>6715000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>8976000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>5283000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>6026000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>5793000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-2053000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>6594000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>7776000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>5844000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>6482000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>6974000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>7969000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>6334000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>6073000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>7612000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>500000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>496000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>503000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>525000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>539000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>553000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>633000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>571000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>589000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>686000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>614000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>654000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>490000000</v>
+      </c>
+      <c r="C10">
         <v>500000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>552000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>503000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>525000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>539000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>497000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>633000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>571000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>589000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>686000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>614000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>654000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>637000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>669000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>671000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>672000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>674000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>672000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>691000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>698000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>672000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>655000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>609000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>521000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>437000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>345000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>340000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>309000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>249000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>247000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>211000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>162000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>161000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>169000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>175000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>135000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>118000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>120000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>109000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-60000000</v>
+      </c>
+      <c r="C11">
         <v>54000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-47000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-174000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>268000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>286000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>310000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>188000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>440000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>248000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>15000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-132000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>194000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>191000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>145000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>127000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>266000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>301000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>349000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>490000000</v>
-      </c>
-      <c r="V11">
-        <v>276000000</v>
       </c>
       <c r="W11">
         <v>276000000</v>
       </c>
       <c r="X11">
+        <v>276000000</v>
+      </c>
+      <c r="Y11">
         <v>371000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>117000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>112000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>259000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-247000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-171000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-280000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>297000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-77000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>74000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>52000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>95000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-17000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-91000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>74000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>72000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-9000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>20339000000</v>
+      </c>
+      <c r="C12">
         <v>21572000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>20487000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>20190000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>22515000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>20524000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>19405000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>17236000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>18337000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>16124000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>13422000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>12843000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>14085000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>12686000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>12596000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>10486000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>10385000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>10221000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>10680000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>8641000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>9169000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>7984000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>7958000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>7094000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>8022000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>6827000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>9235000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>5036000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>5855000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>5513000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-1756000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>6517000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>7850000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>5896000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>6577000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>6957000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>7878000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>6408000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>6145000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>7603000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>3914000000</v>
+      </c>
+      <c r="C13">
         <v>4016000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3747000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3462000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3750000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>19000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2947000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1779000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2874000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2231000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2220000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2091000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2436000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2008000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-591000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1677000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1965000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1397000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1807000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1217000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>15471000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1408000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-111000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1608000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1755000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1160000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>2372000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>1280000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>837000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>611000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1439000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1532000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>1987000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1356000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1965000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>1297000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>1320000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>1164000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1180000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>1548000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>16425000000</v>
+      </c>
+      <c r="C14">
         <v>17556000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>16740000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>16728000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>18765000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>20505000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>16458000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>15457000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>15463000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>13893000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>11202000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>10752000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>11649000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>10678000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>13187000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>8809000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>8420000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>8824000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>8873000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>7424000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-6302000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>6576000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>8069000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>5486000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>6267000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>5667000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>6863000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>3756000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>5018000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>4902000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-3195000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>4985000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>5863000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>4540000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>4612000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>5660000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>6558000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>5244000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>4965000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>6055000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>16425000000</v>
+      </c>
+      <c r="C15">
         <v>17556000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>16740000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>16728000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>18765000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>20505000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>16458000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>15457000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>15463000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>13893000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>11202000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>10752000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>11649000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>10678000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>13187000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>8809000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>8420000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>8824000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>8873000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>7424000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-6302000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>6576000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>8069000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>5486000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>6267000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>5667000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>6863000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>3756000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>5018000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>4902000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-3195000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>4985000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>5863000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>4540000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>4612000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>5660000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>6558000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>5244000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>4965000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>6055000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>2.35</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2.24</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2.23</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.5</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.73</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.19</v>
-      </c>
-      <c r="H16">
-        <v>2.05</v>
       </c>
       <c r="I16">
         <v>2.05</v>
       </c>
       <c r="J16">
+        <v>2.05</v>
+      </c>
+      <c r="K16">
         <v>1.84</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.48</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.41</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.53</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.4</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.72</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.15</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1.09</v>
-      </c>
-      <c r="R16">
-        <v>1.15</v>
       </c>
       <c r="S16">
         <v>1.15</v>
       </c>
       <c r="T16">
+        <v>1.15</v>
+      </c>
+      <c r="U16">
         <v>0.96</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-0.82</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.85</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.84</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.62</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>0.67</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.6</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.4</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.48</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.63</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.58</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-0.4</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.61</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.71</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.55</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.68</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.79</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.63</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.59</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.72</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>2.35</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2.23</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2.22</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.48</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2.71</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2.17</v>
-      </c>
-      <c r="H17">
-        <v>2.03</v>
       </c>
       <c r="I17">
         <v>2.03</v>
       </c>
       <c r="J17">
+        <v>2.03</v>
+      </c>
+      <c r="K17">
         <v>1.82</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.46</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.4</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.51</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.38</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.71</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.14</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1.08</v>
-      </c>
-      <c r="R17">
-        <v>1.14</v>
       </c>
       <c r="S17">
         <v>1.14</v>
       </c>
       <c r="T17">
+        <v>1.14</v>
+      </c>
+      <c r="U17">
         <v>0.95</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-0.82</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.84</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.83</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.61</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.66</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.6</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.39</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.47</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.62</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.57</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-0.4</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>0.61</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.71</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.54</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.55</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.68</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.78</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.62</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.59</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>7451000000</v>
+      </c>
+      <c r="C18">
         <v>7457000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>7496000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>7493000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7505000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>7513000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>7547000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>7539000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7555000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>7566000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>7610000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>7602000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>7621000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>7634000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>7673000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>7672000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>7692000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>7673000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>7700000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>7698000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>7710000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>7708000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>7746000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>7725000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>7755000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>7789000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>7925000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>7895000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>7964000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>7996000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>8177000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>8167000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>8228000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>8249000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>8299000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>8284000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>8326000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>8339000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>8375000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>8364000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>7473000000</v>
+      </c>
+      <c r="C19">
         <v>7485000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>7540000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>7534000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>7555000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7567000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7608000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>7597000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>7616000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>7637000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>7683000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>7675000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>7691000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>7710000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>7753000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>7744000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>7768000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>7766000000</v>
-      </c>
-      <c r="S19">
-        <v>7794000000</v>
       </c>
       <c r="T19">
         <v>7794000000</v>
       </c>
       <c r="U19">
+        <v>7794000000</v>
+      </c>
+      <c r="V19">
         <v>7710000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>7799000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>7832000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>7813000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>7830000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>7876000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>8013000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>7985000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>8051000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>8084000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>8254000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>8237000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>8297000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>8351000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>8399000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>8367000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>8395000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>8434000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>8470000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>8429000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.6685</v>
+      </c>
+      <c r="C20">
         <v>0.6917</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.6832</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.6837</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.6721</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.6989</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.6968</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.6872</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.6705</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.7039</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.6756</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.6866</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.6651</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.6852</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.6912</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.6673</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.6173999999999999</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.6594</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.6762</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.6544</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.6173999999999999</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.6626</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.6698</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.6528</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.6166</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.6423</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.6983</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.6239</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.5851</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.6464</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.6633</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.6704</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.6171</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.6434</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.6736</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.707</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.6606</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.7223000000000001</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.7116</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.7664</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.3867</v>
+      </c>
+      <c r="C21">
         <v>0.4293</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3959</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.4126</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.4301</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.4466</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.4137</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.4088</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.4155</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.4273</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.3525</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.3705</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.3764</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.3838</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.3679</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.3383</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.3159</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.3423</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.345</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.3092</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.3001</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.3141</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.3</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2896</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.3061</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3062</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.3394</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2573</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2532</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2843</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-0.0926</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.3035</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.2938</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2519</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2772</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.3418</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.325</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.3418</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.3052</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.3715</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.3856</v>
+      </c>
+      <c r="C22">
         <v>0.4304</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.395</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.409</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.4353</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.4529</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.4205</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.4133</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.4257</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.434</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.3529</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.3667</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.3816</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.3838</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.3736</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.343</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.3198</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.3514</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.355</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.3222</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.3171</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.3254</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.3108</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.3056</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.3106</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.3113</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.3492</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2453</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.246</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.2705</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-0.07920000000000001</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2999</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.2966</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.2541</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.2813</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.341</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.3213</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.3458</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.3089</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.3711</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.3114</v>
+      </c>
+      <c r="C23">
         <v>0.3503</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.3228</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.3389</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.3628</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.4525</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.3566</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.3706</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.359</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.3739</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.2945</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.307</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.3156</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.323</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.3911</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.2881</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.2593</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.3034</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.2949</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.2768</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-0.2179</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.268</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.3151</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.2363</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.2427</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.2584</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.2595</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.1829</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.2109</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.2405</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-0.144</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.2294</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.2215</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.1957</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1972</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.2774</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.2675</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.283</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.2495</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.2955</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>24047000000</v>
+      </c>
+      <c r="C24">
         <v>24308000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>24513000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>24137000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>25743000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>23450000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>22439000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>19984000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>20658000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>18521000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>16911000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>16093000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>17094000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>15657000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>15329000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>13267000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>13253000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>12792000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>12895000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>11002000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>11215000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>10207000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>10025000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>9176000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>10071000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>8531000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>11516000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>6990000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>7570000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>7254000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>6938000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>8109000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>9297000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>7272000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>8224000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>8229000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>9230000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>7288000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>7056000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>8665000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>20399000000</v>
+      </c>
+      <c r="C25">
         <v>21518000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>20534000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>20364000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>22247000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>20238000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>19095000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>17048000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>17897000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>15876000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>13407000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>12975000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>13891000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>12686000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>12405000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>10341000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>10258000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>9955000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>10379000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>8292000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>8679000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>7708000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>7682000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>6723000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>7905000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>6715000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>8976000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>5283000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>6026000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>5793000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-2053000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>6594000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>7776000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>5844000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>6482000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>6974000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>7969000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>6334000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>6073000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>7612000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>16425000000</v>
+      </c>
+      <c r="C26">
         <v>17556000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>16740000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>16728000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>18765000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>20505000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>16458000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>15457000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>15463000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>13893000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>11202000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>10752000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>11649000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>10678000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>13187000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>8809000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>8420000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>8824000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>8873000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>7424000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-6302000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>6576000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>8069000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>5486000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>6267000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>5667000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>6863000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>3756000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>5018000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>4902000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-3195000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>4985000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>5863000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>4540000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>4612000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>5660000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>6558000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>5244000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>4965000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>6055000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>16425000000</v>
+      </c>
+      <c r="C27">
         <v>17556000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>16740000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>16728000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>18765000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>20505000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>16458000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>15457000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>15463000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>13893000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>11202000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>10752000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>11649000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>10678000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>13187000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>8809000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>8420000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>8824000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>8873000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>7424000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-6302000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>6576000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>8069000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>5486000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>6267000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>5667000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>6863000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>3756000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>5018000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>4902000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-3195000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>4985000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>5863000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>4540000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>4612000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>5660000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>6558000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>5244000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>4965000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>6055000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>2.2044</v>
+      </c>
+      <c r="C28">
         <v>2.3543</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2.2415</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2.2325</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2.5003</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2.7293</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2.1854</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.0503</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2.0467</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1.8362</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.4771</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.4144</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.5285</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.3987</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1.7212</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.1482</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1.0946</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1.15</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.1519</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.9644</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-0.8174</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.8531</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1.0448</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.7102000000000001</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.8081</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.7276</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.8728</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.4757</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.6301</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.6131</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-0.3822</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.6104000000000001</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.7126</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.5504</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.5601</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.6832</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.7877</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.6289</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.5949</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.7239</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>2.1979</v>
+      </c>
+      <c r="C29">
         <v>2.3455</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.233</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2.2203</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2.4838</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2.7098</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.1694</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.0346</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.0303</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.8192</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.463</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.4009</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.5146</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1.385</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1.7036</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1.1375</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1.0839</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1.1362</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.1478</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.9525</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-0.8174</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.8431999999999999</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1.0324</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.7022</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.8004</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.7195</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.8632</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.4704</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.6233</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.6064000000000001</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-0.3783</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.6052</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.7066</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.5436</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.5488</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.6765</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.7812</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.6218</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.5819</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.7184</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>2.2044</v>
+      </c>
+      <c r="C30">
         <v>2.3543</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.2415</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2.2325</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2.5003</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.7293</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.1854</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.0503</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2.0467</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.8362</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.4771</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1.4144</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.5285</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.3987</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1.7212</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.1482</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1.0946</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1.15</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.1519</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.9644</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-0.8174</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.8531</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1.0448</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.7102000000000001</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.8081</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.7276</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.8728</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.4757</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.6301</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.6131</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-0.3822</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.6104000000000001</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.7126</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.5504</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.5601</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.6832</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.7877</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.6289</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.5949</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.7239</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>2.1979</v>
+      </c>
+      <c r="C31">
         <v>2.3455</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.233</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2.2203</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.4838</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2.7098</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.1694</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2.0346</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.0303</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.8192</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.463</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.4009</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.5146</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.385</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1.7036</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.1375</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1.0839</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.1362</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.1478</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.9525</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-0.8174</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.8431999999999999</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1.0324</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.7022</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.8004</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.7195</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.8632</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.4704</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.6233</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.6064000000000001</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-0.3783</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.6052</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.7066</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.5436</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.5488</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.6765</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.7812</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.6218</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.5819</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.7184</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>7485000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>7506000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>7534000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>7555000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>7567000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>7581000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>7597000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>7616000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>7637000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>7650000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>7675000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>7691000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>7710000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>7730000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>7744000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>7768000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>7766000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>7775000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>7794000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>7710000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>7799000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>7806000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>7813000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>7830000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>7876000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>7929000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>7985000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>8028000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>8066000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>8061000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>8237000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>8297000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>8351000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>8345000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>8367000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>8395000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>8434000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>8442000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>8429000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0.4559</v>
+      </c>
+      <c r="C33">
         <v>0.485</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.4726</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.489</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.4977</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.5175</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.4862</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.4792</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.4796</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.4985</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.4446</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.4595</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.4632</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.4737</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.4546</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.434</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.4081</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.4398</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.4286</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.4102</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.3878</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.416</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.3915</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.3953</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.39</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.389</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.4354</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.3405</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.3181</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.356</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.3128</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.3732</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.3512</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.3134</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.3517</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.4033</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.3764</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.3933</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.3546</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.4229</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0.2118</v>
+      </c>
+      <c r="C34">
         <v>0.4628</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.4749</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.5143</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.2799</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.5415</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.4921</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.5318000000000001</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.2906</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.5204</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.491</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.4998</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.2894</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.418</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.4777</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.4422</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.2741</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.4696</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.3795</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.4531</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.2723</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.507</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.4298</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.4592</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.2437</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.5266999999999999</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.32</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.5049</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.2361</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.4355</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.3088</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.466</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.164</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.3601</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.4185</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.495</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.18</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.4428</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.2967</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.4718</v>
       </c>
     </row>
